--- a/curriculos_extraidos.xlsx
+++ b/curriculos_extraidos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,302 +451,268 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ana Clara Mendes</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(61) 99666-7788</t>
+          <t>(41) 99988-7766</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>anaclara.mendes.ml@example.com</t>
+          <t>beatrizlima.qa@example.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Atuar na área de Machine Learning e Inteligência Artificial, aplicando técnicas preditivas em dados
-reais.</t>
+          <t>Atuar como Analista de Qualidade de Software, garantindo a confiabilidade de sistemas e automação de testes.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ana_Clara_Mendes.pdf</t>
+          <t>Beatriz_Lima.pdf</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Beatriz Lima</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(41) 99988-7766</t>
+          <t>(11) 98654-3210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>beatrizlima.qa@example.com</t>
+          <t>camila.ferreira.devops@example.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Atuar como Analista de Qualidade de</t>
+          <t>Atuar como Engenheira DevOps, integrando processos de CI/CD e infraestrutura como código.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Beatriz_Lima.pdf</t>
+          <t>Camila_Ferreira.pdf</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Camila Ferreira</t>
+          <t>PEDRO BORO GUERRA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(11) 98654-3210</t>
+          <t>(19) 99566-0148</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>camila.ferreira.devops@example.com</t>
+          <t>pguerra872@gmail.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Atuar como Engenheira DevOps, integrando processos de CI/CD e infraestrutura como código.</t>
+          <t>Como estudante de Análise e Desenvolvimento de Sistemas, meu objetivo é aprender a programar de forma eficiente, dominar tecnologias de banco de dados e desenvolver soluções de software escaláveis. Busco aprimorar minhas habilidades em resolução de problemas, trabalho em equipe e comunicação, com foco em atender às necessidades do mercado e sempre me atualizar com as novas tendências da área.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Camila_Ferreira.pdf</t>
+          <t>curriculo_pedro.pdf</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P E D R O  B O R O  G U E R R A
-OBJETIVOS
-IDIOMASFORMAÇÃO
-Como estudante de Análise e Desenvolvimento de Sistemas</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(19) 99566-0148</t>
+          <t>(19) 99777-8899</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>pguerra872@gmail.com</t>
+          <t>felipemartins.iot@example.com</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Atuar como Desenvolvedor IoT e integrar dispositivos inteligentes com serviços em nuvem.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>curriculo_pedro.pdf</t>
+          <t>Felipe_Martins.pdf</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Felipe Martins</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(19) 99777-8899</t>
+          <t>(21) 97788-5544</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>felipemartins.iot@example.com</t>
+          <t>joaohenrique.support@example.com</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Atuar como Desenvolvedor IoT e integrar dispositivos inteligentes com serviços em nuvem.</t>
+          <t>Atuar na área de Suporte Técnico e Infraestrutura, oferecendo soluções rápidas e eficazes para usuários.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Felipe_Martins.pdf</t>
+          <t>João_Henrique.pdf</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>João Henrique</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(21) 97788-5544</t>
+          <t>(51) 99888-3322</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>joaohenrique.support@example.com</t>
+          <t>larissa.oliveira.uiux@example.com</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Atuar na área de Suporte Técnico e Infraestrutura, oferecendo soluções rápidas e eficazes para
-usuários.</t>
+          <t>Atuar como Designer UI/UX, criando interfaces intuitivas e</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>João_Henrique.pdf</t>
+          <t>Larissa_Oliveira.pdf</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Larissa Oliveira</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(51) 99888-3322</t>
+          <t>(11) 98765-4321</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>larissa.oliveira.uiux@example.com</t>
+          <t>lucasalmeida.dev@example.com</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Atuar como Designer UI/UX, criando interfaces intuitivas e</t>
+          <t>Atuar como Desenvolvedor Front-End, aprimorando habilidades em React, JavaScript e design responsivo.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Larissa_Oliveira.pdf</t>
+          <t>Lucas_Almeida.pdf</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lucas Almeida</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(11) 98765-4321</t>
+          <t>(21) 98877-6655</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>lucasalmeida.dev@example.com</t>
+          <t>marianasouza.data@example.com</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Atuar como Desenvolvedor Front-End, aprimorando habilidades em React, JavaScript e design
-responsivo.</t>
+          <t>Buscar oportunidades como Analista de Dados Júnior, aplicando Python, SQL e Power BI em</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lucas_Almeida.pdf</t>
+          <t>Mariana_Souza.pdf</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mariana Souza</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(21) 98877-6655</t>
+          <t>(31) 97744-2233</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>marianasouza.data@example.com</t>
+          <t>rafael.costa@example.com</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Buscar oportunidades como Analista de Dados Júnior, aplicando Python, SQL e Power BI em</t>
+          <t>Atuar como Desenvolvedor Back-End Júnior com foco em Node.js, APIs REST e banco de dados PostgreSQL.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mariana_Souza.pdf</t>
+          <t>Rafael_Costa.pdf</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rafael Costa</t>
+          <t>Não encontrado</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(31) 97744-2233</t>
+          <t>(85) 98877-1100</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>rafael.costa@example.com</t>
+          <t>thiago.ribeiro.fullstack@example.com</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Atuar como Desenvolvedor Back-End Júnior com foco em Node.js, APIs REST e banco de dados
-PostgreSQL.</t>
+          <t>Atuar como Desenvolvedor Full Stack, criando soluções completas e escaláveis.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
-        <is>
-          <t>Rafael_Costa.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Thiago Ribeiro</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>(85) 98877-1100</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>thiago.ribeiro.fullstack@example.com</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Atuar como Desenvolvedor Full Stack, criando soluções completas e escaláveis.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
         <is>
           <t>Thiago_Ribeiro.pdf</t>
         </is>
